--- a/doc/RegistreHeuresConsacrees.xlsx
+++ b/doc/RegistreHeuresConsacrees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\TP3_AMOC_KCarufel_JAudet\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\TP3_AMOC_KCarufel_JAudet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C2BE91-D9A2-4B0C-9DAD-4975496356C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38312BF-6A60-45C0-A279-10F752F8E218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Temps consacré (Heure)</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -183,13 +186,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,150 +474,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:J19"/>
+  <dimension ref="C5:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J20" sqref="J20:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="4" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
+        <v>44946</v>
+      </c>
+      <c r="F7" s="5">
         <v>2.5</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="H8" s="6" t="s">
+    <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>44948</v>
+      </c>
+      <c r="F8" s="10">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="J8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/RegistreHeuresConsacrees.xlsx
+++ b/doc/RegistreHeuresConsacrees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\TP3_AMOC_KCarufel_JAudet\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Audet\Documents\GitHub\TP3_AMOC_KCarufel_JAudet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38312BF-6A60-45C0-A279-10F752F8E218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8775406F-9989-4F03-8120-40E731D6294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -66,6 +66,48 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Jonathan Audet</t>
+  </si>
+  <si>
+    <t>Video presentation projet</t>
+  </si>
+  <si>
+    <t>Video Pub</t>
+  </si>
+  <si>
+    <t>Classe LCD</t>
+  </si>
+  <si>
+    <t>Classe Sensor BME</t>
+  </si>
+  <si>
+    <t>Classe DS20B18</t>
+  </si>
+  <si>
+    <t>Home Assistant</t>
+  </si>
+  <si>
+    <t>MQTT</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>settings.json+Class Getdata</t>
+  </si>
+  <si>
+    <t>Classe Bouton</t>
+  </si>
+  <si>
+    <t>Touble shooting diver</t>
+  </si>
+  <si>
+    <t>divers</t>
   </si>
 </sst>
 </file>
@@ -178,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -193,7 +235,6 @@
       <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:J8"/>
+  <dimension ref="C5:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:J21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="5" width="28.28515625" customWidth="1"/>
@@ -526,7 +567,9 @@
       <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
@@ -535,13 +578,181 @@
       <c r="E8" s="9">
         <v>44948</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8">
         <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9">
+        <v>44969</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9">
+        <v>44970</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9">
+        <v>44951</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9">
+        <v>44952</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9">
+        <v>44953</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9">
+        <v>44954</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="9">
+        <v>44955</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="9">
+        <v>44956</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="9">
+        <v>44957</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="9">
+        <v>44958</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9">
+        <v>44959</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/RegistreHeuresConsacrees.xlsx
+++ b/doc/RegistreHeuresConsacrees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Audet\Documents\GitHub\TP3_AMOC_KCarufel_JAudet\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\TP3_AMOC_KCarufel_JAudet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8775406F-9989-4F03-8120-40E731D6294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A4B81B-F384-403D-8C7E-A9DFF50562A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -108,6 +108,33 @@
   </si>
   <si>
     <t>divers</t>
+  </si>
+  <si>
+    <t>WifiManager</t>
+  </si>
+  <si>
+    <t>Diagramme UML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentation power point </t>
+  </si>
+  <si>
+    <t>deboguage divers</t>
+  </si>
+  <si>
+    <t>Communication MQTT</t>
+  </si>
+  <si>
+    <t>2023-01-25/26/28</t>
+  </si>
+  <si>
+    <t>2023-02-13/14</t>
+  </si>
+  <si>
+    <t>Developpement projet et idee de depart</t>
+  </si>
+  <si>
+    <t>rapport technique</t>
   </si>
 </sst>
 </file>
@@ -131,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -216,11 +243,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -228,13 +264,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,23 +561,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:J20"/>
+  <dimension ref="C5:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="5" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,214 +591,340 @@
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>44946</v>
       </c>
       <c r="F7" s="5">
         <v>2.5</v>
       </c>
-      <c r="I7" s="4" t="s">
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44948</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44969</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8">
+        <v>44970</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8">
+        <v>44951</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8">
+        <v>44952</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8">
+        <v>44953</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8">
+        <v>44954</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8">
+        <v>44955</v>
+      </c>
+      <c r="F15" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9">
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8">
+        <v>44956</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8">
+        <v>44957</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8">
+        <v>44958</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="8">
+        <v>44959</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="8">
+        <v>44952</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="8">
+        <v>44971</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="8">
+        <v>44958</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="11">
         <v>44948</v>
       </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="F28" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="14">
+        <f>SUM(F9,F10,F11,F12,F13:F20,F28)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="9">
-        <v>44969</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="9">
-        <v>44970</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9">
-        <v>44951</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9">
-        <v>44952</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9">
-        <v>44953</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="9">
-        <v>44954</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9">
-        <v>44955</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="9">
-        <v>44956</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="9">
-        <v>44957</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="9">
-        <v>44958</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9">
-        <v>44959</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
+      <c r="D32" s="13">
+        <f>SUM(F7,F8,F22,F23,F24,F25,F26,F27,F21)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
